--- a/products.xlsx
+++ b/products.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lancewhatley/moontography/contracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5DBCD8-3719-2842-A961-D934432F07F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C19E22-9C38-EC4B-87A1-51DB2B2AE7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{B57A1663-67F0-A447-9066-7726D1B320E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -815,39 +815,39 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f>$C9/D2</f>
-        <v>0</v>
+        <v>4.5454545454545455E-4</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="6">$C9/E2</f>
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="F9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.1407678244972576E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.2658227848101264</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.3137436372049978E-2</v>
       </c>
       <c r="K9">
         <f>$C9/K2</f>
-        <v>0</v>
+        <v>4.5454545454545455E-4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lancewhatley/moontography/contracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C19E22-9C38-EC4B-87A1-51DB2B2AE7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9072D44A-46A0-844D-BE8B-79F22F9967E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{B57A1663-67F0-A447-9066-7726D1B320E6}"/>
   </bookViews>
@@ -815,39 +815,39 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <f>$C9/D2</f>
-        <v>4.5454545454545455E-4</v>
+        <v>1.1363636363636363E-3</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="6">$C9/E2</f>
-        <v>3.3333333333333335E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="F9">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <f t="shared" si="6"/>
-        <v>9.1407678244972576E-2</v>
+        <v>0.22851919561243145</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>2.2222222222222223E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="6"/>
-        <v>1.2658227848101264</v>
+        <v>3.1645569620253164</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
-        <v>2.3137436372049978E-2</v>
+        <v>5.7843590930124943E-2</v>
       </c>
       <c r="K9">
         <f>$C9/K2</f>
-        <v>4.5454545454545455E-4</v>
+        <v>1.1363636363636363E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">

--- a/products.xlsx
+++ b/products.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lancewhatley/moontography/contracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9072D44A-46A0-844D-BE8B-79F22F9967E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1BCCAE-EC88-4F44-88F5-B32CFAE16991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{B57A1663-67F0-A447-9066-7726D1B320E6}"/>
   </bookViews>
@@ -524,13 +524,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>4400</v>
+        <v>2600</v>
       </c>
       <c r="E2" s="2">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="F2" s="2">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="G2" s="2">
         <v>21.88</v>
@@ -542,11 +542,11 @@
         <v>1.58</v>
       </c>
       <c r="J2" s="2">
-        <v>86.44</v>
+        <v>150</v>
       </c>
       <c r="K2" s="2">
         <f>D2</f>
-        <v>4400</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -561,15 +561,15 @@
       </c>
       <c r="D3">
         <f>$C3/D2</f>
-        <v>2.2727272727272728E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:K3" si="0">$C3/E2</f>
-        <v>0.16666666666666666</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -585,11 +585,11 @@
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>1.1568718186024989</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>2.2727272727272728E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -604,15 +604,15 @@
       </c>
       <c r="D4">
         <f>$C4/D2</f>
-        <v>4.5454545454545455E-4</v>
+        <v>7.6923076923076923E-4</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:K4" si="1">$C4/E2</f>
-        <v>3.3333333333333335E-3</v>
+        <v>5.263157894736842E-3</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -628,11 +628,11 @@
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>2.3137436372049978E-2</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>4.5454545454545455E-4</v>
+        <v>7.6923076923076923E-4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -647,15 +647,15 @@
       </c>
       <c r="D5">
         <f>$C5/D2</f>
-        <v>4.5454545454545455E-4</v>
+        <v>7.6923076923076923E-4</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:K5" si="2">$C5/E2</f>
-        <v>3.3333333333333335E-3</v>
+        <v>5.263157894736842E-3</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
@@ -671,11 +671,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>2.3137436372049978E-2</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>4.5454545454545455E-4</v>
+        <v>7.6923076923076923E-4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -690,15 +690,15 @@
       </c>
       <c r="D6">
         <f>$C6/D2</f>
-        <v>5.6818181818181816E-2</v>
+        <v>9.6153846153846159E-2</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:K6" si="3">$C6/E2</f>
-        <v>0.41666666666666669</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>147.05882352941177</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
@@ -714,11 +714,11 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>2.892179546506247</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>5.6818181818181816E-2</v>
+        <v>9.6153846153846159E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -733,15 +733,15 @@
       </c>
       <c r="D7">
         <f>$C7/D2</f>
-        <v>5.6818181818181816E-2</v>
+        <v>9.6153846153846159E-2</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:K7" si="4">$C7/E2</f>
-        <v>0.41666666666666669</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>147.05882352941177</v>
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
@@ -757,11 +757,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>2.892179546506247</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>5.6818181818181816E-2</v>
+        <v>9.6153846153846159E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -772,39 +772,39 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="D8">
         <f>$C8/D2</f>
-        <v>0.22727272727272727</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:K8" si="5">$C8/E2</f>
-        <v>1.6666666666666667</v>
+        <v>6.5789473684210522</v>
       </c>
       <c r="F8">
         <f t="shared" si="5"/>
-        <v>400</v>
+        <v>1470.5882352941178</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
-        <v>45.703839122486293</v>
+        <v>114.25959780621572</v>
       </c>
       <c r="H8">
         <f t="shared" si="5"/>
-        <v>11.111111111111111</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
-        <v>632.91139240506322</v>
+        <v>1582.2784810126582</v>
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
-        <v>11.568718186024988</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>0.22727272727272727</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -815,39 +815,39 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <f>$C9/D2</f>
-        <v>1.1363636363636363E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="6">$C9/E2</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="G9">
         <f t="shared" si="6"/>
-        <v>0.22851919561243145</v>
+        <v>0.45703839122486289</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>5.5555555555555552E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I9">
         <f t="shared" si="6"/>
-        <v>3.1645569620253164</v>
+        <v>6.3291139240506329</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
-        <v>5.7843590930124943E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K9">
         <f>$C9/K2</f>
-        <v>1.1363636363636363E-3</v>
+        <v>3.8461538461538464E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -862,15 +862,15 @@
       </c>
       <c r="D10">
         <f>$C10/D2</f>
-        <v>0.45454545454545453</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:K10" si="7">$C10/E2</f>
-        <v>3.3333333333333335</v>
+        <v>5.2631578947368425</v>
       </c>
       <c r="F10">
         <f t="shared" si="7"/>
-        <v>800</v>
+        <v>1176.4705882352941</v>
       </c>
       <c r="G10">
         <f t="shared" si="7"/>
@@ -886,11 +886,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="7"/>
-        <v>23.137436372049976</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="K10">
         <f t="shared" si="7"/>
-        <v>0.45454545454545453</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
   </sheetData>
